--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.950899999999997</v>
+        <v>-6.956999999999994</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.117400000000002</v>
+        <v>-8.190300000000001</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,10 +556,10 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.592499999999996</v>
+        <v>-8.2029</v>
       </c>
       <c r="E7" t="n">
-        <v>16.2258</v>
+        <v>16.73579999999999</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.500700000000002</v>
+        <v>-8.6326</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.6723</v>
+        <v>16.94749999999999</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.52540000000001</v>
+        <v>17.49580000000001</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.11290000000001</v>
+        <v>16.0941</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.807000000000002</v>
+        <v>-8.870600000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,10 +777,10 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.341600000000003</v>
+        <v>-8.363800000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>16.22010000000001</v>
+        <v>16.21770000000001</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.234300000000005</v>
+        <v>-8.362800000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>16.18359999999999</v>
+        <v>16.1576</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.3124</v>
+        <v>17.3232</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.06529999999999</v>
+        <v>16.14609999999999</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.021099999999999</v>
+        <v>-7.981000000000003</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,10 +930,10 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.830800000000006</v>
+        <v>-7.778999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>16.43319999999999</v>
+        <v>16.53789999999999</v>
       </c>
     </row>
     <row r="30">
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.659700000000003</v>
+        <v>-7.597799999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.187199999999997</v>
+        <v>-9.224699999999997</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.77509999999999</v>
+        <v>17.64240000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.298899999999998</v>
+        <v>-8.350099999999998</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.3481</v>
+        <v>16.29249999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.6009</v>
+        <v>17.56040000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6325</v>
+        <v>16.60069999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.42919999999999</v>
+        <v>16.5187</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.318199999999991</v>
+        <v>-7.325199999999993</v>
       </c>
       <c r="E46" t="n">
-        <v>17.1636</v>
+        <v>17.1323</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4267</v>
+        <v>16.621</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.229700000000001</v>
+        <v>-8.289300000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>16.5551</v>
+        <v>16.4101</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.085099999999998</v>
+        <v>-7.129499999999995</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.255699999999997</v>
+        <v>-8.14439999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>16.63320000000001</v>
+        <v>16.60010000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.366700000000002</v>
+        <v>-8.326900000000002</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.958199999999993</v>
+        <v>-8.567599999999992</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.47640000000001</v>
+        <v>17.58780000000002</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.072600000000001</v>
+        <v>-7.007299999999998</v>
       </c>
       <c r="E66" t="n">
-        <v>17.22450000000002</v>
+        <v>17.29500000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.02700000000002</v>
+        <v>17.14590000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.204000000000001</v>
+        <v>-8.3385</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.357300000000004</v>
+        <v>-8.375800000000003</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.7632</v>
+        <v>-5.900199999999999</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.06550000000002</v>
+        <v>18.23790000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.523</v>
+        <v>16.45649999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.12169999999999</v>
+        <v>16.05749999999999</v>
       </c>
     </row>
     <row r="88">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.790900000000001</v>
+        <v>-6.806099999999998</v>
       </c>
       <c r="E92" t="n">
-        <v>17.48400000000002</v>
+        <v>17.45330000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.6414</v>
+        <v>16.5536</v>
       </c>
     </row>
     <row r="98">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.811199999999996</v>
+        <v>-8.909699999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
